--- a/data/CanadianNaturalResources.xlsx
+++ b/data/CanadianNaturalResources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="CanadianNaturalResources" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,9 @@
     <t>Province/Territory</t>
   </si>
   <si>
-    <t>Copper (t/sq km)</t>
-  </si>
-  <si>
     <t>Gold (kg/sq km)</t>
   </si>
   <si>
-    <t>Timber (m^3/sq km)</t>
-  </si>
-  <si>
-    <t>Natural Gas (K m^3/sq km)</t>
-  </si>
-  <si>
     <t>Freshwater (% surface area)</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Copper (tonnes/sq km)</t>
+  </si>
+  <si>
+    <t>Timber (cubic metres/sq km)</t>
+  </si>
+  <si>
+    <t>Natural Gas (thousand cubic metres/sq km)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,19 +913,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0.132165385</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2.5464055999999999E-2</v>
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0.17730015499999999</v>
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5.8966003000000003E-2</v>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1.024521E-3</v>
@@ -1117,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0.32894409499999999</v>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>4.3397872999999997E-2</v>
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1.7383500000000001E-4</v>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>6.5547283999999997E-2</v>

--- a/data/CanadianNaturalResources.xlsx
+++ b/data/CanadianNaturalResources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="CanadianNaturalResources" sheetId="1" r:id="rId1"/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
